--- a/stack/Stack SDE Sheet.xlsx
+++ b/stack/Stack SDE Sheet.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravip\OneDrive\Desktop\weeklyDSA\stack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D134E-2F6F-4073-A46A-4A9EAF069F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t xml:space="preserve">Questions marked with ** are most important for interviews perspective </t>
   </si>
@@ -179,40 +188,48 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ht-zr2xlfdk</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -222,7 +239,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -232,47 +249,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -462,43 +482,48 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="54.38"/>
-    <col customWidth="1" min="3" max="3" width="43.38"/>
+    <col min="1" max="1" width="54.36328125" customWidth="1"/>
+    <col min="3" max="3" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -512,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -526,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -540,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -554,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -568,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -581,8 +606,11 @@
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -596,7 +624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -610,19 +638,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -636,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -650,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -664,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -678,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -692,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -706,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -720,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -734,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -748,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -762,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -776,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -790,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -804,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -818,7 +846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -834,30 +862,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C4"/>
-    <hyperlink r:id="rId2" ref="C5"/>
-    <hyperlink r:id="rId3" ref="C6"/>
-    <hyperlink r:id="rId4" ref="C7"/>
-    <hyperlink r:id="rId5" ref="C8"/>
-    <hyperlink r:id="rId6" ref="C9"/>
-    <hyperlink r:id="rId7" ref="C10"/>
-    <hyperlink r:id="rId8" ref="C11"/>
-    <hyperlink r:id="rId9" ref="C14"/>
-    <hyperlink r:id="rId10" ref="C15"/>
-    <hyperlink r:id="rId11" ref="C16"/>
-    <hyperlink r:id="rId12" ref="C17"/>
-    <hyperlink r:id="rId13" ref="C18"/>
-    <hyperlink r:id="rId14" ref="C19"/>
-    <hyperlink r:id="rId15" ref="C20"/>
-    <hyperlink r:id="rId16" ref="C21"/>
-    <hyperlink r:id="rId17" ref="C22"/>
-    <hyperlink r:id="rId18" ref="C23"/>
-    <hyperlink r:id="rId19" ref="C24"/>
-    <hyperlink r:id="rId20" ref="C25"/>
-    <hyperlink r:id="rId21" ref="C26"/>
-    <hyperlink r:id="rId22" ref="C27"/>
-    <hyperlink r:id="rId23" ref="C28"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
-  <drawing r:id="rId24"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>